--- a/data/trans_orig/CoTrAQ_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>38745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29207</v>
+        <v>28810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47888</v>
+        <v>48319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.496201045948077</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3740471357598322</v>
+        <v>0.368960616723246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6132837167967446</v>
+        <v>0.6188065317911157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -763,19 +763,19 @@
         <v>56136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47652</v>
+        <v>46895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64626</v>
+        <v>63766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6768509823038976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5745597101548134</v>
+        <v>0.5654291425493393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7792229662609914</v>
+        <v>0.7688503964831385</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -784,19 +784,19 @@
         <v>94881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81717</v>
+        <v>82180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107867</v>
+        <v>107812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5892487840490759</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5074909998704107</v>
+        <v>0.5103676120611503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6698926041088786</v>
+        <v>0.6695547804862746</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>39339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30196</v>
+        <v>29765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48877</v>
+        <v>49274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.503798954051923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.386716283203255</v>
+        <v>0.3811934682088844</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6259528642401677</v>
+        <v>0.6310393832767538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -834,19 +834,19 @@
         <v>26801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18311</v>
+        <v>19171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35285</v>
+        <v>36042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3231490176961024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2207770337390086</v>
+        <v>0.2311496035168616</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4254402898451866</v>
+        <v>0.4345708574506608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -855,19 +855,19 @@
         <v>66140</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53154</v>
+        <v>53209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79304</v>
+        <v>78841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4107512159509241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3301073958911214</v>
+        <v>0.3304452195137254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4925090001295894</v>
+        <v>0.4896323879388497</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>255481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>237089</v>
+        <v>237013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>274242</v>
+        <v>271882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6828624281062021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6337020053120811</v>
+        <v>0.633499438337665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7330061260530153</v>
+        <v>0.7266999551330946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -980,19 +980,19 @@
         <v>174090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156039</v>
+        <v>159363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>188388</v>
+        <v>189716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6586726995485825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5903732002395242</v>
+        <v>0.6029514977610025</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7127681348663124</v>
+        <v>0.7177926541079311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>410</v>
@@ -1001,19 +1001,19 @@
         <v>429572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>404932</v>
+        <v>402100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>451485</v>
+        <v>454027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6728481930491087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6342548030573449</v>
+        <v>0.6298181499970682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7071712548672526</v>
+        <v>0.711152640378355</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>118652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99891</v>
+        <v>102251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>137044</v>
+        <v>137120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3171375718937979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2669938739469849</v>
+        <v>0.2733000448669054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3662979946879192</v>
+        <v>0.3665005616623351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>83</v>
@@ -1051,19 +1051,19 @@
         <v>90215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75917</v>
+        <v>74589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108266</v>
+        <v>104942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3413273004514175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2872318651336876</v>
+        <v>0.2822073458920689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.409626799760476</v>
+        <v>0.3970485022389975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>198</v>
@@ -1072,19 +1072,19 @@
         <v>208866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>186953</v>
+        <v>184411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>233506</v>
+        <v>236338</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3271518069508913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2928287451327473</v>
+        <v>0.2888473596216449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3657451969426551</v>
+        <v>0.3701818500029318</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>294566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>274165</v>
+        <v>274214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>312640</v>
+        <v>312041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7181785912923966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6684400399454382</v>
+        <v>0.6685596297396975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7622444677617219</v>
+        <v>0.760783164166114</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -1197,19 +1197,19 @@
         <v>171385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154464</v>
+        <v>155415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187281</v>
+        <v>189415</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6224928861524924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5610344263743587</v>
+        <v>0.5644886722406465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6802303495965589</v>
+        <v>0.6879799694038737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>451</v>
@@ -1218,19 +1218,19 @@
         <v>465951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>440300</v>
+        <v>440694</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>490103</v>
+        <v>488861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6797466546422463</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6423258230811305</v>
+        <v>0.6429014719782413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7149806314479215</v>
+        <v>0.713168354390183</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>115591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97517</v>
+        <v>98116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135992</v>
+        <v>135943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2818214087076035</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2377555322382779</v>
+        <v>0.2392168358338864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3315599600545614</v>
+        <v>0.331440370260303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -1268,19 +1268,19 @@
         <v>103935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88039</v>
+        <v>85905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120856</v>
+        <v>119905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3775071138475076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3197696504034408</v>
+        <v>0.312020030596126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.438965573625641</v>
+        <v>0.4355113277593529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>207</v>
@@ -1289,19 +1289,19 @@
         <v>219526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195374</v>
+        <v>196616</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245177</v>
+        <v>244783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3202533453577538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2850193685520785</v>
+        <v>0.2868316456098171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3576741769188694</v>
+        <v>0.3570985280217588</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>272219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254368</v>
+        <v>253906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>287958</v>
+        <v>288714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7578746418706054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7081764218507366</v>
+        <v>0.7068908596953073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8016935956531736</v>
+        <v>0.8037988552560819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1414,19 +1414,19 @@
         <v>141049</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125116</v>
+        <v>126332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157086</v>
+        <v>155896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6563890210612839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5822422771105995</v>
+        <v>0.5878997236077873</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7310178352059292</v>
+        <v>0.7254799916239409</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>361</v>
@@ -1435,19 +1435,19 @@
         <v>413269</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388713</v>
+        <v>388794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>435539</v>
+        <v>436468</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7198865906121473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6771119924200202</v>
+        <v>0.6772532818258804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7586796729569205</v>
+        <v>0.7602972078836259</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>86968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71229</v>
+        <v>70473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104819</v>
+        <v>105281</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2421253581293946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1983064043468265</v>
+        <v>0.196201144743918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2918235781492636</v>
+        <v>0.2931091403046925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -1485,19 +1485,19 @@
         <v>73838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57801</v>
+        <v>58991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89771</v>
+        <v>88555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3436109789387161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2689821647940707</v>
+        <v>0.2745200083760587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4177577228894004</v>
+        <v>0.4121002763922116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1506,19 +1506,19 @@
         <v>160806</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>138536</v>
+        <v>137607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185362</v>
+        <v>185281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2801134093878527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.24132032704308</v>
+        <v>0.2397027921163742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3228880075799798</v>
+        <v>0.3227467181741195</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>116651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104209</v>
+        <v>104968</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126136</v>
+        <v>126929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7559298226825469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6753006658741469</v>
+        <v>0.6802173363881912</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8173908366053521</v>
+        <v>0.8225343681776418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1631,19 +1631,19 @@
         <v>47491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37706</v>
+        <v>39048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53593</v>
+        <v>53557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7386395858187719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5864582310131508</v>
+        <v>0.6073326505730464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8335453716499271</v>
+        <v>0.8329866901603511</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -1652,19 +1652,19 @@
         <v>164142</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150083</v>
+        <v>149487</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177663</v>
+        <v>176733</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7508446205039376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6865321050521779</v>
+        <v>0.6838054278811735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8126938080746282</v>
+        <v>0.8084375838186983</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>37664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28179</v>
+        <v>27386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50106</v>
+        <v>49347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.244070177317453</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1826091633946482</v>
+        <v>0.1774656318223581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3246993341258533</v>
+        <v>0.3197826636118089</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1702,19 +1702,19 @@
         <v>16804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10702</v>
+        <v>10738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26589</v>
+        <v>25247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2613604141812281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1664546283500728</v>
+        <v>0.1670133098396488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4135417689868485</v>
+        <v>0.3926673494269541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1723,19 +1723,19 @@
         <v>54468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40947</v>
+        <v>41877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68527</v>
+        <v>69123</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2491553794960624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1873061919253718</v>
+        <v>0.1915624161813016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3134678949478222</v>
+        <v>0.3161945721188263</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>977663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>546</v>
@@ -1848,19 +1848,19 @@
         <v>590152</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1467</v>
@@ -1869,19 +1869,19 @@
         <v>1567815</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>398213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363820</v>
+        <v>365362</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>433212</v>
+        <v>433754</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2894251821981535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2644278577024006</v>
+        <v>0.2655487443565437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3148629711980049</v>
+        <v>0.3152568326362643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>286</v>
@@ -1919,19 +1919,19 @@
         <v>311593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282950</v>
+        <v>281744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342444</v>
+        <v>341111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3455442571823424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3137803527508142</v>
+        <v>0.312442865836102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3797567787887939</v>
+        <v>0.3782784690918711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>658</v>
@@ -1940,19 +1940,19 @@
         <v>709806</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>662111</v>
+        <v>666414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>755504</v>
+        <v>761652</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3116435876612533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2907029917106331</v>
+        <v>0.2925921065120196</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3317077310862672</v>
+        <v>0.3344070328302141</v>
       </c>
     </row>
     <row r="21">
@@ -2285,19 +2285,19 @@
         <v>35060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26154</v>
+        <v>25992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43846</v>
+        <v>44371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4431806307710487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3306041952626917</v>
+        <v>0.3285584595821863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5542450714154578</v>
+        <v>0.560889687999141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -2306,19 +2306,19 @@
         <v>42888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33368</v>
+        <v>34060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50710</v>
+        <v>51998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4669146852190011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3632695594725775</v>
+        <v>0.3708009163597041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5520706920940928</v>
+        <v>0.5660845801869505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -2327,19 +2327,19 @@
         <v>77948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63783</v>
+        <v>65042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89552</v>
+        <v>92042</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4559323627601455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3730781927700519</v>
+        <v>0.3804412498140505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5238068994561353</v>
+        <v>0.5383727122264025</v>
       </c>
     </row>
     <row r="5">
@@ -2356,19 +2356,19 @@
         <v>44049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35263</v>
+        <v>34738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52955</v>
+        <v>53117</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5568193692289513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4457549285845422</v>
+        <v>0.4391103120008592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6693958047373083</v>
+        <v>0.6714415404178138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -2377,19 +2377,19 @@
         <v>48967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41145</v>
+        <v>39857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58487</v>
+        <v>57795</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5330853147809989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4479293079059073</v>
+        <v>0.4339154198130496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6367304405274228</v>
+        <v>0.629199083640296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -2398,19 +2398,19 @@
         <v>93016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81412</v>
+        <v>78922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107181</v>
+        <v>105922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5440676372398545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4761931005438645</v>
+        <v>0.4616272877735977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6269218072299482</v>
+        <v>0.6195587501859495</v>
       </c>
     </row>
     <row r="6">
@@ -2502,19 +2502,19 @@
         <v>174793</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155708</v>
+        <v>156543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194677</v>
+        <v>194579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5078453056415487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4523969269967744</v>
+        <v>0.4548235116204075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.565616573768695</v>
+        <v>0.5653339887541099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -2523,19 +2523,19 @@
         <v>139942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123068</v>
+        <v>124482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155412</v>
+        <v>156490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5112661995614505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4496188496715892</v>
+        <v>0.454785233161901</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5677856505355015</v>
+        <v>0.5717239451491513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -2544,19 +2544,19 @@
         <v>314735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>291189</v>
+        <v>292238</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>340335</v>
+        <v>339862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5093606834402968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4712543634018074</v>
+        <v>0.4729519471242466</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5507910002825233</v>
+        <v>0.5500252944125293</v>
       </c>
     </row>
     <row r="8">
@@ -2573,19 +2573,19 @@
         <v>169392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149508</v>
+        <v>149606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>188477</v>
+        <v>187642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4921546943584513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.434383426231305</v>
+        <v>0.4346660112458897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5476030730032254</v>
+        <v>0.5451764883795924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -2594,19 +2594,19 @@
         <v>133774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118304</v>
+        <v>117226</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150648</v>
+        <v>149234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4887338004385495</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4322143494644987</v>
+        <v>0.4282760548508489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.550381150328411</v>
+        <v>0.5452147668380991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>299</v>
@@ -2615,19 +2615,19 @@
         <v>303167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>277567</v>
+        <v>278040</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>326713</v>
+        <v>325664</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4906393165597031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4492089997174767</v>
+        <v>0.4499747055874708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5287456365981926</v>
+        <v>0.5270480528757535</v>
       </c>
     </row>
     <row r="9">
@@ -2719,19 +2719,19 @@
         <v>249262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>227963</v>
+        <v>228891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272773</v>
+        <v>272253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5423595070933502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4960170103162655</v>
+        <v>0.4980348228415515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5935174192793391</v>
+        <v>0.5923844916825031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -2740,19 +2740,19 @@
         <v>166147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149306</v>
+        <v>150567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183760</v>
+        <v>185559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5234381799383379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4703831302044348</v>
+        <v>0.4743550337543401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.578928132990487</v>
+        <v>0.5845967768680382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>401</v>
@@ -2761,19 +2761,19 @@
         <v>415408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>388596</v>
+        <v>386528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>443106</v>
+        <v>442041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5346299357801809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.500123414507884</v>
+        <v>0.4974608250583268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.570277314496989</v>
+        <v>0.5689071777464593</v>
       </c>
     </row>
     <row r="11">
@@ -2790,19 +2790,19 @@
         <v>210326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>186815</v>
+        <v>187335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231625</v>
+        <v>230697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4576404929066498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.406482580720661</v>
+        <v>0.4076155083174969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5039829896837345</v>
+        <v>0.5019651771584485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -2811,19 +2811,19 @@
         <v>151267</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133654</v>
+        <v>131855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168108</v>
+        <v>166847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4765618200616621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4210718670095126</v>
+        <v>0.4154032231319618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5296168697955652</v>
+        <v>0.5256449662456599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>355</v>
@@ -2832,19 +2832,19 @@
         <v>361593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>333895</v>
+        <v>334960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>388405</v>
+        <v>390473</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4653700642198191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4297226855030109</v>
+        <v>0.4310928222535407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4998765854921162</v>
+        <v>0.5025391749416732</v>
       </c>
     </row>
     <row r="12">
@@ -2936,19 +2936,19 @@
         <v>212757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>191862</v>
+        <v>192245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230044</v>
+        <v>233681</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5785715021553377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5217485456326122</v>
+        <v>0.5227900388191088</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6255823619402513</v>
+        <v>0.6354733278786264</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -2957,19 +2957,19 @@
         <v>119655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103352</v>
+        <v>102384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136442</v>
+        <v>135588</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.492166607297026</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4251084480121149</v>
+        <v>0.4211274567199997</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.561217423332383</v>
+        <v>0.5577042038651516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -2978,19 +2978,19 @@
         <v>332412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306219</v>
+        <v>304495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356906</v>
+        <v>356043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5441821778682316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5013025491140741</v>
+        <v>0.4984802888777929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5842815818569335</v>
+        <v>0.5828686724681302</v>
       </c>
     </row>
     <row r="14">
@@ -3007,19 +3007,19 @@
         <v>154971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137684</v>
+        <v>134047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175866</v>
+        <v>175483</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4214284978446623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3744176380597486</v>
+        <v>0.3645266721213733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4782514543673876</v>
+        <v>0.4772099611808908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -3028,19 +3028,19 @@
         <v>123463</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106676</v>
+        <v>107530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139766</v>
+        <v>140734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.507833392702974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4387825766676171</v>
+        <v>0.4422957961348487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5748915519878851</v>
+        <v>0.5788725432800005</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -3049,19 +3049,19 @@
         <v>278434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>253940</v>
+        <v>254803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>304627</v>
+        <v>306351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4558178221317683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4157184181430665</v>
+        <v>0.4171313275318697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4986974508859258</v>
+        <v>0.5015197111222069</v>
       </c>
     </row>
     <row r="15">
@@ -3153,19 +3153,19 @@
         <v>97698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82623</v>
+        <v>85321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110240</v>
+        <v>111502</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5895169580826494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4985540320325254</v>
+        <v>0.5148303698625525</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6651928337330386</v>
+        <v>0.6728080400508937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3174,19 +3174,19 @@
         <v>45797</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34475</v>
+        <v>35607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56044</v>
+        <v>57238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4325452224689511</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3256042258868435</v>
+        <v>0.3362962754141956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5293188603401565</v>
+        <v>0.5405947834280992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -3195,19 +3195,19 @@
         <v>143496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126201</v>
+        <v>126049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162516</v>
+        <v>161495</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5283252638071505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4646482874260576</v>
+        <v>0.4640881422105658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5983551498323496</v>
+        <v>0.5945966801151799</v>
       </c>
     </row>
     <row r="17">
@@ -3224,19 +3224,19 @@
         <v>68028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55486</v>
+        <v>54224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83103</v>
+        <v>80405</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4104830419173506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3348071662669613</v>
+        <v>0.3271919599491064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5014459679674745</v>
+        <v>0.4851696301374476</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -3245,19 +3245,19 @@
         <v>60082</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49835</v>
+        <v>48641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71404</v>
+        <v>70272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5674547775310489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4706811396598435</v>
+        <v>0.4594052165719009</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6743957741131565</v>
+        <v>0.6637037245858044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -3266,19 +3266,19 @@
         <v>128109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109089</v>
+        <v>110110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145404</v>
+        <v>145556</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4716747361928494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4016448501676503</v>
+        <v>0.40540331988482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5353517125739424</v>
+        <v>0.5359118577894343</v>
       </c>
     </row>
     <row r="18">
@@ -3370,19 +3370,19 @@
         <v>769570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>498</v>
@@ -3391,19 +3391,19 @@
         <v>514429</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1217</v>
@@ -3412,19 +3412,19 @@
         <v>1283998</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="20">
@@ -3441,19 +3441,19 @@
         <v>646767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>607493</v>
+        <v>610998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>682954</v>
+        <v>689230</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4566476881107582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4289183388126102</v>
+        <v>0.4313934183143039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4821972040575991</v>
+        <v>0.4866284555824158</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>510</v>
@@ -3462,19 +3462,19 @@
         <v>517553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>487672</v>
+        <v>484154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>550978</v>
+        <v>549169</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5015137588781524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4725583142435112</v>
+        <v>0.4691495103933734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5339029316886295</v>
+        <v>0.5321495928987855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1108</v>
@@ -3483,19 +3483,19 @@
         <v>1164320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1114323</v>
+        <v>1116838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1214208</v>
+        <v>1211571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4755590197231679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.455138109209918</v>
+        <v>0.4561654047919837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.495935477821412</v>
+        <v>0.4948586857866573</v>
       </c>
     </row>
     <row r="21">
